--- a/results/Homeopathy_excluded/mod2.corrupt_salience.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.corrupt_salience.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0643179878784296</v>
+        <v>-0.064318205679937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0482991184619177</v>
+        <v>0.0482987844568541</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.158982520548822</v>
+        <v>-0.158982083712434</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0303465447919627</v>
+        <v>0.0303456723525599</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.33165966432995</v>
+        <v>-1.33167338274099</v>
       </c>
       <c r="H2" t="n">
-        <v>0.182972049367049</v>
+        <v>0.182967539446281</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.270166020692494</v>
+        <v>0.270164615590458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115778247505789</v>
+        <v>0.115777297836138</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.043244825387982</v>
+        <v>0.0432452816042606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.497087215997005</v>
+        <v>0.497083949576656</v>
       </c>
       <c r="G3" t="n">
-        <v>2.33347823544301</v>
+        <v>2.33348523967823</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0196230593277396</v>
+        <v>0.0196226921263607</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0781721784376352</v>
+        <v>-0.0781711868254316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0520639487513928</v>
+        <v>0.0520636229706993</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.180215642883304</v>
+        <v>-0.180214012752674</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0238712860080337</v>
+        <v>0.0238716391018113</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.50146464708065</v>
+        <v>-1.50145499611937</v>
       </c>
       <c r="H4" t="n">
-        <v>0.133235423991317</v>
+        <v>0.133237918459055</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.127675854376429</v>
+        <v>-0.12767522308509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0425482919864304</v>
+        <v>0.0425479944585187</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.211068974273527</v>
+        <v>-0.211067759838196</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.044282734479331</v>
+        <v>-0.0442826863319834</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.00072807663225</v>
+        <v>-3.00073422284484</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00269334965607777</v>
+        <v>0.00269329529729139</v>
       </c>
     </row>
   </sheetData>
